--- a/Mifos Automation Excels/Client/2572-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2572-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -320,15 +320,10 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +663,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +784,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -889,6 +884,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -916,6 +912,7 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -959,6 +956,9 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
@@ -1002,6 +1002,9 @@
         <v>0</v>
       </c>
       <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
@@ -1047,6 +1050,9 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
         <v>989.79</v>
       </c>
@@ -1090,6 +1096,9 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
         <v>983.21</v>
       </c>
@@ -1133,6 +1142,9 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
         <v>971.85</v>
       </c>
@@ -1176,6 +1188,9 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
       <c r="P9" s="6">
         <v>964.68</v>
       </c>
@@ -1219,6 +1234,9 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
       <c r="P10" s="6">
         <v>955.42</v>
       </c>
@@ -1262,6 +1280,9 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
       <c r="P11" s="6">
         <v>944.96</v>
       </c>
@@ -1305,6 +1326,9 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
       <c r="P12" s="6">
         <v>936.89</v>
       </c>
@@ -1348,6 +1372,9 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
       <c r="P13" s="6">
         <v>927.02</v>
       </c>
@@ -1391,9 +1418,15 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
       <c r="P14" s="6">
         <v>918.37</v>
       </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,7 +1491,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1492,7 +1525,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1526,7 +1559,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1560,7 +1593,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1602,7 +1635,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1760,7 @@
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>151</v>
       </c>
@@ -1778,12 +1811,12 @@
       <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>152</v>
       </c>
@@ -1805,12 +1838,12 @@
       <c r="G3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>154</v>
       </c>
@@ -1832,18 +1865,10 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,7 +1880,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,13 +2000,13 @@
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -2010,7 +2035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>151</v>
       </c>
@@ -2033,11 +2058,11 @@
         <v>33</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>152</v>
       </c>
@@ -2060,11 +2085,11 @@
         <v>36</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>154</v>
       </c>
@@ -2086,28 +2111,10 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="19"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2572-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2572-MS-EPP-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-CASH-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -182,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,6 +339,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -381,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,9 +422,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,6 +474,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,10 +826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,12 +846,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,17 +892,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -886,8 +930,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -914,8 +959,9 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -953,17 +999,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1001,17 +1048,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1047,17 +1095,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>989.79</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1093,17 +1142,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>983.21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1139,17 +1189,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>971.85</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1185,17 +1236,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>964.68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1231,17 +1283,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>955.42</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1277,17 +1330,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>944.96</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1323,17 +1377,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>936.89</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1369,17 +1424,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>927.02</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1415,18 +1471,19 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>918.37</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O15" s="17"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
